--- a/Colors/colors.xlsx
+++ b/Colors/colors.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Webscrapping\Colors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_colors\color_managment\Colors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A8D7EC-F12F-4F13-8587-334732029FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C1C8EC-BCCC-4057-BBF0-76978316CBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{88591220-376A-468B-8D34-4B2976EDA6A2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>Color Name</t>
   </si>
@@ -228,6 +228,45 @@
   </si>
   <si>
     <t>(247, 161, 55)</t>
+  </si>
+  <si>
+    <t>#FF6F61</t>
+  </si>
+  <si>
+    <t>(255, 111, 97)</t>
+  </si>
+  <si>
+    <t>#F5DF4D</t>
+  </si>
+  <si>
+    <t>(245, 223, 77)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #9BB7D4</t>
+  </si>
+  <si>
+    <t>(155, 183, 212)</t>
+  </si>
+  <si>
+    <t>#FFD662</t>
+  </si>
+  <si>
+    <t>(255, 214, 98)</t>
+  </si>
+  <si>
+    <t>#DD4132</t>
+  </si>
+  <si>
+    <t>#F5F5F5</t>
+  </si>
+  <si>
+    <t>(245, 245, 245)</t>
+  </si>
+  <si>
+    <t>(221, 65, 50)</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -298,17 +337,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -648,7 +683,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,7 +707,7 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -689,7 +724,9 @@
       <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -713,7 +750,12 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -738,7 +780,12 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -748,7 +795,12 @@
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -758,7 +810,12 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -768,6 +825,12 @@
       <c r="B9" t="s">
         <v>22</v>
       </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -775,6 +838,12 @@
       </c>
       <c r="B10" t="s">
         <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">

--- a/Colors/colors.xlsx
+++ b/Colors/colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_colors\color_managment\Colors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C1C8EC-BCCC-4057-BBF0-76978316CBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7008B15E-C153-48A5-915C-C2090BBB7BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{88591220-376A-468B-8D34-4B2976EDA6A2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>Color Name</t>
   </si>
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>(221, 65, 50)</t>
-  </si>
-  <si>
-    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -724,9 +721,7 @@
       <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
